--- a/0 NeetCode/287. Find the Duplicate Number/Whiteboards/Solution.xlsx
+++ b/0 NeetCode/287. Find the Duplicate Number/Whiteboards/Solution.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\0 NeetCode\287. Find the Duplicate Number\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E4C62-76B1-46E5-AAC7-6C7E596C65D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7755DA6A-1FF0-43A8-AB6D-9C8D820BF23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>numd</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -391,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
-  <dimension ref="D4:T15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855FD695-6F7E-497B-A9F5-5B29F2F2827F}">
+  <dimension ref="D4:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH72" sqref="AH72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -494,9 +498,2402 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <f>SUM(F20:J20)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <f>SUM(F21:J21)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <f>SUM(F22:J22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f>SUM(F23:J23)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <f>SUM(F24:J24)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>6</v>
+      </c>
+      <c r="L29" s="1">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1">
+        <v>8</v>
+      </c>
+      <c r="N29" s="1">
+        <v>9</v>
+      </c>
+      <c r="O29" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" ref="Q29:Q37" si="0">SUM(F29:O29)</f>
+        <v>54</v>
+      </c>
+      <c r="W29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="1">
+        <f>W29</f>
+        <v>5</v>
+      </c>
+      <c r="Z29" s="1">
+        <f>Y29+1</f>
+        <v>6</v>
+      </c>
+      <c r="AA29" s="1">
+        <f>Z29*Y29</f>
+        <v>30</v>
+      </c>
+      <c r="AB29" s="1">
+        <f>AA29/2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>6</v>
+      </c>
+      <c r="L30" s="1">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>8</v>
+      </c>
+      <c r="N30" s="1">
+        <v>9</v>
+      </c>
+      <c r="O30" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" ref="S30:S36" si="1">$Q$29-Q30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1">
+        <v>7</v>
+      </c>
+      <c r="M31" s="1">
+        <v>8</v>
+      </c>
+      <c r="N31" s="1">
+        <v>9</v>
+      </c>
+      <c r="O31" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="S31" s="1">
+        <f>$Q$29-Q31</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6</v>
+      </c>
+      <c r="L32" s="1">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1">
+        <v>8</v>
+      </c>
+      <c r="N32" s="1">
+        <v>9</v>
+      </c>
+      <c r="O32" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6</v>
+      </c>
+      <c r="L33" s="1">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>8</v>
+      </c>
+      <c r="N33" s="1">
+        <v>9</v>
+      </c>
+      <c r="O33" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6</v>
+      </c>
+      <c r="L34" s="1">
+        <v>7</v>
+      </c>
+      <c r="M34" s="1">
+        <v>8</v>
+      </c>
+      <c r="N34" s="1">
+        <v>9</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1">
+        <v>7</v>
+      </c>
+      <c r="M35" s="1">
+        <v>8</v>
+      </c>
+      <c r="N35" s="1">
+        <v>9</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>6</v>
+      </c>
+      <c r="L36" s="1">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1">
+        <v>8</v>
+      </c>
+      <c r="N36" s="1">
+        <v>9</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6</v>
+      </c>
+      <c r="L37" s="1">
+        <v>7</v>
+      </c>
+      <c r="M37" s="1">
+        <v>8</v>
+      </c>
+      <c r="N37" s="1">
+        <v>9</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <f>SUM(F37:O37)</f>
+        <v>46</v>
+      </c>
+      <c r="S37" s="1">
+        <f>$Q$29-Q37</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" ref="Q39:Q52" si="2">SUM(F39:O39)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2</v>
+      </c>
+      <c r="O40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>3</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3</v>
+      </c>
+      <c r="N41" s="1">
+        <v>3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>4</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>6</v>
+      </c>
+      <c r="L48" s="1">
+        <v>7</v>
+      </c>
+      <c r="M48" s="1">
+        <v>8</v>
+      </c>
+      <c r="N48" s="1">
+        <v>9</v>
+      </c>
+      <c r="O48" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>6</v>
+      </c>
+      <c r="I51" s="1">
+        <v>6</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6</v>
+      </c>
+      <c r="K51" s="1">
+        <v>6</v>
+      </c>
+      <c r="L51" s="1">
+        <v>6</v>
+      </c>
+      <c r="M51" s="1">
+        <v>6</v>
+      </c>
+      <c r="N51" s="1">
+        <v>6</v>
+      </c>
+      <c r="O51" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3</v>
+      </c>
+      <c r="M54" s="1">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1">
+        <v>3</v>
+      </c>
+      <c r="O54" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" ref="Q54" si="3">SUM(F54:O54)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" ref="Q58" si="4">SUM(F58:O58)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" ref="Q63" si="5">SUM(F63:O63)</f>
+        <v>13</v>
+      </c>
+      <c r="R63" s="1">
+        <f>AVERAGE(F63:J63)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="65" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" ref="Q65" si="6">SUM(F65:O65)</f>
+        <v>12</v>
+      </c>
+      <c r="R65" s="1">
+        <f>AVERAGE(F65:J65)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="67" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1">
+        <v>4</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67" si="7">SUM(F67:O67)</f>
+        <v>12</v>
+      </c>
+      <c r="R67" s="1">
+        <f>AVERAGE(F67:J67)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="70" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" ref="Q70:Q72" si="8">SUM(F70:O70)</f>
+        <v>10</v>
+      </c>
+      <c r="R70" s="1">
+        <f>AVERAGE(F70:J70)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4</v>
+      </c>
+      <c r="J72" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="R72" s="1">
+        <f>AVERAGE(F72:J72)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1">
+        <v>4</v>
+      </c>
+      <c r="J74" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" ref="Q74" si="9">SUM(F74:O74)</f>
+        <v>13</v>
+      </c>
+      <c r="R74" s="1">
+        <f>AVERAGE(F74:J74)</f>
+        <v>2.6</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4</v>
+      </c>
+      <c r="J77" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" ref="Q77:Q78" si="10">SUM(F77:O77)</f>
+        <v>14</v>
+      </c>
+      <c r="R77" s="1">
+        <f>AVERAGE(F77:J77)</f>
+        <v>2.8</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="1">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="R78" s="1">
+        <f>AVERAGE(F78:J78)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
+  <dimension ref="G7:AE47"/>
+  <sheetViews>
+    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>SUM(G7:Z7)</f>
+        <v>20</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>AVERAGE(G7:Z7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>SUM(G8:Z8)</f>
+        <v>21</v>
+      </c>
+      <c r="AE8" s="1">
+        <f>AVERAGE(G8:Z8)</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>SUM(G9:Z9)</f>
+        <v>23</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>AVERAGE(G9:Z9)</f>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>SUM(G10:Z10)</f>
+        <v>26</v>
+      </c>
+      <c r="AE10" s="1">
+        <f>AVERAGE(G10:Z10)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>SUM(G11:Z11)</f>
+        <v>26</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>AVERAGE(G11:Z11)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="1">
+        <f>SUM(G12:Z12)</f>
+        <v>30</v>
+      </c>
+      <c r="AE12" s="1">
+        <f>AVERAGE(G12:Z12)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="1">
+        <f>SUM(G13:Z13)</f>
+        <v>35</v>
+      </c>
+      <c r="AE13" s="1">
+        <f>AVERAGE(G13:Z13)</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="14" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4</v>
+      </c>
+      <c r="X14" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>SUM(G14:Z14)</f>
+        <v>41</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>AVERAGE(G14:Z14)</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4</v>
+      </c>
+      <c r="W15" s="1">
+        <v>5</v>
+      </c>
+      <c r="X15" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>SUM(G15:Z15)</f>
+        <v>48</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>AVERAGE(G15:Z15)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>6</v>
+      </c>
+      <c r="X16" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="1">
+        <f>SUM(G16:Z16)</f>
+        <v>56</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>AVERAGE(G16:Z16)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4</v>
+      </c>
+      <c r="U17" s="1">
+        <v>5</v>
+      </c>
+      <c r="V17" s="1">
+        <v>6</v>
+      </c>
+      <c r="W17" s="1">
+        <v>7</v>
+      </c>
+      <c r="X17" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="1">
+        <f>SUM(G17:Z17)</f>
+        <v>65</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>AVERAGE(G17:Z17)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="18" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5</v>
+      </c>
+      <c r="U18" s="1">
+        <v>6</v>
+      </c>
+      <c r="V18" s="1">
+        <v>7</v>
+      </c>
+      <c r="W18" s="1">
+        <v>8</v>
+      </c>
+      <c r="X18" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>SUM(G18:Z18)</f>
+        <v>75</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>AVERAGE(G18:Z18)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <v>5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>6</v>
+      </c>
+      <c r="U19" s="1">
+        <v>7</v>
+      </c>
+      <c r="V19" s="1">
+        <v>8</v>
+      </c>
+      <c r="W19" s="1">
+        <v>9</v>
+      </c>
+      <c r="X19" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="1">
+        <f>SUM(G19:Z19)</f>
+        <v>86</v>
+      </c>
+      <c r="AE19" s="1">
+        <f>AVERAGE(G19:Z19)</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1">
+        <v>6</v>
+      </c>
+      <c r="T20" s="1">
+        <v>7</v>
+      </c>
+      <c r="U20" s="1">
+        <v>8</v>
+      </c>
+      <c r="V20" s="1">
+        <v>9</v>
+      </c>
+      <c r="W20" s="1">
+        <v>10</v>
+      </c>
+      <c r="X20" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="1">
+        <f>SUM(G20:Z20)</f>
+        <v>99</v>
+      </c>
+      <c r="AE20" s="1">
+        <f>AVERAGE(G20:Z20)</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="25" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1">
+        <f>SUM(G28:J28)</f>
+        <v>10</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <f>SUM(O28:R28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ref="L29:L40" si="0">SUM(G29:J29)</f>
+        <v>6</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" ref="T29:T31" si="1">SUM(O29:R29)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R33" s="1">
+        <v>2</v>
+      </c>
+      <c r="T33" s="1">
+        <f>SUM(O33:R33)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" ref="T34:T36" si="2">SUM(O34:R34)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <v>3</v>
+      </c>
+      <c r="T39" s="1">
+        <f>SUM(O39:R39)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" ref="T40:T42" si="3">SUM(O40:R40)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>3</v>
+      </c>
+      <c r="R41" s="1">
+        <v>3</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="1">
+        <v>3</v>
+      </c>
+      <c r="P42" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>3</v>
+      </c>
+      <c r="R42" s="1">
+        <v>3</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <v>4</v>
+      </c>
+      <c r="T44" s="1">
+        <f>SUM(O44:R44)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1">
+        <v>4</v>
+      </c>
+      <c r="R45" s="1">
+        <v>4</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" ref="T45:T47" si="4">SUM(O45:R45)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>4</v>
+      </c>
+      <c r="R46" s="1">
+        <v>4</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="1">
+        <v>4</v>
+      </c>
+      <c r="P47" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>4</v>
+      </c>
+      <c r="R47" s="1">
+        <v>4</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
